--- a/target/test-classes/TestPack.xlsx
+++ b/target/test-classes/TestPack.xlsx
@@ -13,6 +13,36 @@
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Results (2016-09-08)(13-03-50)" r:id="rId92" sheetId="89"/>
+    <sheet name="Results (2016-09-08)(12-59-21)" r:id="rId91" sheetId="88"/>
+    <sheet name="Results (2016-09-08)(12-27-46)" r:id="rId90" sheetId="87"/>
+    <sheet name="Results (2016-09-08)(12-23-13)" r:id="rId89" sheetId="86"/>
+    <sheet name="Results (2016-09-08)(11-46-50)" r:id="rId88" sheetId="85"/>
+    <sheet name="Results (2016-09-08)(11-44-22)" r:id="rId87" sheetId="84"/>
+    <sheet name="Results (2016-09-08)(11-34-02)" r:id="rId86" sheetId="83"/>
+    <sheet name="Results (2016-09-08)(11-32-30)" r:id="rId85" sheetId="82"/>
+    <sheet name="Results (2016-09-08)(11-27-17)" r:id="rId84" sheetId="81"/>
+    <sheet name="Results (2016-09-08)(11-26-53)" r:id="rId83" sheetId="80"/>
+    <sheet name="Results (2016-09-08)(11-23-05)" r:id="rId82" sheetId="79"/>
+    <sheet name="Results (2016-09-08)(11-19-48)" r:id="rId81" sheetId="78"/>
+    <sheet name="Results (2016-09-08)(11-18-37)" r:id="rId80" sheetId="77"/>
+    <sheet name="Results (2016-09-08)(11-16-55)" r:id="rId79" sheetId="76"/>
+    <sheet name="Results (2016-09-08)(11-12-25)" r:id="rId78" sheetId="75"/>
+    <sheet name="Results (2016-09-08)(10-01-00)" r:id="rId77" sheetId="74"/>
+    <sheet name="Results (2016-09-08)(09-58-49)" r:id="rId76" sheetId="73"/>
+    <sheet name="Results (2016-09-08)(09-57-56)" r:id="rId75" sheetId="72"/>
+    <sheet name="Results (2016-09-08)(09-56-21)" r:id="rId74" sheetId="71"/>
+    <sheet name="Results (2016-09-08)(09-49-22)" r:id="rId73" sheetId="70"/>
+    <sheet name="Results (2016-09-08)(09-39-58)" r:id="rId72" sheetId="69"/>
+    <sheet name="Results (2016-09-08)(09-37-12)" r:id="rId71" sheetId="68"/>
+    <sheet name="Results (2016-09-08)(09-36-17)" r:id="rId70" sheetId="67"/>
+    <sheet name="Results (2016-09-08)(09-15-47)" r:id="rId69" sheetId="66"/>
+    <sheet name="Results (2016-09-08)(09-13-38)" r:id="rId68" sheetId="65"/>
+    <sheet name="Results (2016-09-08)(09-12-48)" r:id="rId67" sheetId="64"/>
+    <sheet name="Results (2016-09-08)(09-12-06)" r:id="rId66" sheetId="63"/>
+    <sheet name="Results (2016-09-08)(06-28-07)" r:id="rId65" sheetId="62"/>
+    <sheet name="Results (2016-09-08)(06-10-59)" r:id="rId64" sheetId="61"/>
+    <sheet name="Results (2016-09-08)(06-07-31)" r:id="rId63" sheetId="60"/>
     <sheet name="Results (2016-09-07)(10-59-20)" r:id="rId62" sheetId="59"/>
     <sheet name="Results (2016-09-07)(10-57-55)" r:id="rId61" sheetId="58"/>
     <sheet name="Results (2016-09-07)(10-47-52)" r:id="rId60" sheetId="57"/>
@@ -77,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="110">
   <si>
     <t>Summary</t>
   </si>
@@ -414,7 +444,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="302">
+  <fonts count="452">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1888,8 +1918,668 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="346">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2717,8 +3407,908 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="206">
+  <borders count="446">
     <border>
       <left/>
       <right/>
@@ -3280,6 +4870,2046 @@
         <color indexed="8"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <bottom style="thin"/>
@@ -4715,7 +8345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5240,6 +8870,156 @@
     <xf numFmtId="0" fontId="299" fillId="0" borderId="205" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="300" fillId="163" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="301" fillId="165" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="302" fillId="167" borderId="213" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="303" fillId="167" borderId="213" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="213" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="305" fillId="169" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="306" fillId="171" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="307" fillId="173" borderId="221" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="308" fillId="173" borderId="221" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="221" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="310" fillId="175" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="311" fillId="177" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="312" fillId="179" borderId="229" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="313" fillId="179" borderId="229" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="229" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="315" fillId="181" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="316" fillId="183" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="317" fillId="185" borderId="237" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="318" fillId="185" borderId="237" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="237" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="320" fillId="187" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="321" fillId="189" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="322" fillId="191" borderId="245" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="323" fillId="191" borderId="245" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="245" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="325" fillId="193" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="326" fillId="195" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="327" fillId="197" borderId="253" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="328" fillId="197" borderId="253" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="253" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="330" fillId="199" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="331" fillId="201" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="332" fillId="203" borderId="261" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="333" fillId="203" borderId="261" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="261" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="335" fillId="205" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="336" fillId="207" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="337" fillId="209" borderId="269" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="338" fillId="209" borderId="269" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="269" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="340" fillId="211" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="341" fillId="213" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="342" fillId="215" borderId="277" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="343" fillId="215" borderId="277" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="277" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="345" fillId="217" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="346" fillId="219" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="347" fillId="221" borderId="285" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="348" fillId="221" borderId="285" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="285" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="350" fillId="223" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="351" fillId="225" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="352" fillId="227" borderId="293" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="353" fillId="227" borderId="293" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="293" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="355" fillId="229" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="356" fillId="231" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="357" fillId="233" borderId="301" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="358" fillId="233" borderId="301" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="301" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="360" fillId="235" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="361" fillId="237" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="362" fillId="239" borderId="309" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="363" fillId="239" borderId="309" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="309" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="365" fillId="241" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="366" fillId="243" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="367" fillId="245" borderId="317" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="368" fillId="245" borderId="317" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="317" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="370" fillId="247" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="371" fillId="249" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="372" fillId="251" borderId="325" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="373" fillId="251" borderId="325" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="325" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="375" fillId="253" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="376" fillId="255" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="377" fillId="257" borderId="333" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="378" fillId="257" borderId="333" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="333" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="380" fillId="259" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="381" fillId="261" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="382" fillId="263" borderId="341" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="383" fillId="263" borderId="341" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="341" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="385" fillId="265" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="386" fillId="267" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="387" fillId="269" borderId="349" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="388" fillId="269" borderId="349" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="349" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="390" fillId="271" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="391" fillId="273" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="392" fillId="275" borderId="357" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="393" fillId="275" borderId="357" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="357" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="395" fillId="277" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="396" fillId="279" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="397" fillId="281" borderId="365" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="398" fillId="281" borderId="365" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="365" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="400" fillId="283" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="401" fillId="285" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="402" fillId="287" borderId="373" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="403" fillId="287" borderId="373" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="373" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="405" fillId="289" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="406" fillId="291" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="407" fillId="293" borderId="381" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="408" fillId="293" borderId="381" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="381" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="410" fillId="295" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="411" fillId="297" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="412" fillId="299" borderId="389" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="413" fillId="299" borderId="389" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="389" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="415" fillId="301" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="416" fillId="303" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="417" fillId="305" borderId="397" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="418" fillId="305" borderId="397" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="397" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="420" fillId="307" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="421" fillId="309" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="422" fillId="311" borderId="405" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="423" fillId="311" borderId="405" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="405" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="425" fillId="313" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="426" fillId="315" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="427" fillId="317" borderId="413" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="428" fillId="317" borderId="413" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="413" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="430" fillId="319" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="431" fillId="321" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="432" fillId="323" borderId="421" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="433" fillId="323" borderId="421" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="421" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="435" fillId="325" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="436" fillId="327" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="437" fillId="329" borderId="429" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="438" fillId="329" borderId="429" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="429" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="440" fillId="331" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="441" fillId="333" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="442" fillId="335" borderId="437" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="443" fillId="335" borderId="437" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="437" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="445" fillId="337" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="446" fillId="339" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="447" fillId="341" borderId="445" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="448" fillId="341" borderId="445" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="445" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="450" fillId="343" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="451" fillId="345" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11132,10 +14912,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11231,10 +15011,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="11.5859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.45703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11427,6 +15207,996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="394">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="394">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="394">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="393">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="393">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="394">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="393">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="393">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="394">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="393">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="393">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="394">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="393">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="393">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="392">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="392">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="392">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="392">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="392">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="392">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="399">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="399">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="398">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="398">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="399">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="398">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="398">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="399">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="398">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="398">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="399">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="398">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="397">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="397">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="397">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="397">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="397">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="397">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="404">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="404">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="404">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="403">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="403">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="404">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="403">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="403">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="404">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="403">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="403">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="404">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="403">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="403">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="402">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="402">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="402">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="402">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="402">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="402">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="409">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="409">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="408">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="408">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="409">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="408">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="408">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="409">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="408">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="408">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="409">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="408">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="408">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="407">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="407">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="407">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="407">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="407">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="407">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="414">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="414">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="414">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="413">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="414">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="413">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="413">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="414">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="413">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="413">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="414">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="413">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="412">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="412">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="412">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="419">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="419">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="418">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="418">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="419">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="418">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="418">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="419">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="418">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="418">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="419">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="418">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="418">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="417">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="417">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="417">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="417">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="417">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="417">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="424">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="424">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="423">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="424">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="423">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="423">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="424">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="423">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="423">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="424">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="422">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="422">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="422">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="422">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="422">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="422">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="429">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="429">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="429">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="428">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="428">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="429">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="428">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="428">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="429">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="428">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="428">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="429">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="428">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="428">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="427">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="427">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="427">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="427">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="427">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="427">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="434">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="434">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="434">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="433">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="433">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="434">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="433">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="433">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="434">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="433">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="433">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="434">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="433">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="433">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="432">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="432">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="432">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="432">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="432">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="432">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="439">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="439">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="439">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="438">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="438">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="439">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="438">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="438">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="439">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="438">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="438">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="439">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="438">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="438">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="437">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="437">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="437">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="437">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="437">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="437">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
@@ -11530,6 +16300,996 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="444">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="444">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="443">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="443">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="444">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="443">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="443">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="444">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="443">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="443">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="444">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="443">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="443">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="442">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="442">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="442">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="442">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="442">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="442">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="449">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="449">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="449">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="448">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="448">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="449">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="448">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="448">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="449">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="448">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="448">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="449">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="448">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="447">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="447">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="447">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="447">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="447">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="447">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="454">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="454">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="453">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="454">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="453">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="453">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="454">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="453">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="453">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="454">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="453">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="452">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="452">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="452">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="452">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="452">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="452">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="459">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="459">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="459">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="458">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="458">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="459">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="458">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="458">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="459">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="458">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="458">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="459">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="458">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="458">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="457">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="457">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="457">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="457">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="457">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="457">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="464">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="464">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="463">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="463">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="464">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="463">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="463">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="464">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="463">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="463">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="464">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="463">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="463">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="462">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="462">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="462">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="462">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="462">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="462">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="469">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="469">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="469">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="468">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="468">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="469">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="468">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="468">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="469">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="468">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="468">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="469">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="468">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="468">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="467">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="467">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="467">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="467">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="467">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="467">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="474">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="474">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="473">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="473">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="474">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="473">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="473">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="474">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="473">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="473">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="474">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="473">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="473">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="472">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="472">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="472">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="472">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="472">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="472">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="479">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="479">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="478">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="478">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="479">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="478">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="478">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="479">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="478">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="478">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="479">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="478">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="478">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="477">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="477">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="477">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="477">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="477">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="477">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="484">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="484">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="483">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="483">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="484">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="483">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="483">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="484">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="483">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="483">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="484">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="483">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="483">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="482">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="482">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="482">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="482">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="482">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="482">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="489">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="489">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="489">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="488">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="488">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="489">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="488">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="488">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="489">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="488">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="488">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="489">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="488">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="488">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="487">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="487">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="487">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="487">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="487">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="487">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -11638,6 +17398,996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="494">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="494">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="494">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="493">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="493">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="494">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="493">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="493">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="494">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="493">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="493">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="494">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="493">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="493">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="492">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="492">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="492">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="492">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="492">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="492">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="499">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="499">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="499">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="498">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="498">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="499">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="498">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="498">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="499">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="498">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="498">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="499">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="498">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="498">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="497">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="497">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="497">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="497">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="497">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="497">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="504">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="504">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="504">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="503">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="503">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="504">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="503">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="503">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="504">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="503">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="503">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="504">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="503">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="503">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="502">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="502">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="502">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="502">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="502">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="502">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="509">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="509">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="508">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="508">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="509">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="508">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="508">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="509">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="508">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="508">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="509">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="508">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="508">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="507">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="507">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="507">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="507">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="507">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="507">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="514">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="514">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="514">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="513">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="514">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="513">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="513">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="514">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="513">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="513">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="514">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="513">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="512">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="512">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="512">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="512">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="512">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="512">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="519">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="519">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="519">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="518">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="518">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="519">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="518">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="518">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="519">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="518">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="518">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="519">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="518">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="518">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="517">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="517">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="517">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="517">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="517">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="517">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="524">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="524">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="524">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="523">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="523">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="524">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="523">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="523">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="524">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="523">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="523">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="524">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="523">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="523">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="522">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="522">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="522">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="522">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="522">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="522">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="529">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="529">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="528">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="528">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="529">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="528">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="528">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="529">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="528">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="528">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="529">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="528">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="528">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="527">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="527">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="527">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="527">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="527">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="527">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="534">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="534">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="533">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="533">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="534">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="533">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="533">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="534">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="533">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="533">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="534">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="533">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="533">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="532">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="532">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="532">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="532">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="532">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="532">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" width="11.5859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.45703125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="539">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="539">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="538">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="539">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="538">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="538">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="539">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="538">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="538">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="539">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="538">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="537">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="537">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="537">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="537">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="537">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="537">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>

--- a/target/test-classes/TestPack.xlsx
+++ b/target/test-classes/TestPack.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Results (2016-09-09)(06-44-30)" r:id="rId93" sheetId="90"/>
     <sheet name="Results (2016-09-08)(13-03-50)" r:id="rId92" sheetId="89"/>
     <sheet name="Results (2016-09-08)(12-59-21)" r:id="rId91" sheetId="88"/>
     <sheet name="Results (2016-09-08)(12-27-46)" r:id="rId90" sheetId="87"/>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="111">
   <si>
     <t>Summary</t>
   </si>
@@ -438,13 +439,16 @@
   <si>
     <t>0:0:3</t>
   </si>
+  <si>
+    <t>0:6:5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="452">
+  <fonts count="457">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2578,8 +2582,30 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="346">
+  <fills count="352">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4307,8 +4333,38 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="446">
+  <borders count="454">
     <border>
       <left/>
       <right/>
@@ -4870,6 +4926,74 @@
         <color indexed="8"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <bottom style="thin"/>
@@ -8345,7 +8469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="547">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -9020,6 +9144,11 @@
     <xf numFmtId="0" fontId="449" fillId="0" borderId="445" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="450" fillId="343" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="451" fillId="345" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="452" fillId="347" borderId="453" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="453" fillId="347" borderId="453" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="453" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="455" fillId="349" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="456" fillId="351" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18198,10 +18327,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18297,10 +18426,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="11.5859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.45703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.04296875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.45703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18491,4 +18620,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" width="11.5859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.45703125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="544">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="544">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="543">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s" s="543">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="544">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="543">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="543">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="544">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="543">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="543">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="544">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="543">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s" s="543">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="542">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="542">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="542">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="542">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="542">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="542">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>